--- a/test/output/mem_lifetime.xlsx
+++ b/test/output/mem_lifetime.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19404677-8286-401B-9ECA-C003BA90E578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA33B29-EAD5-4EFA-991E-423A172DE077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11055" yWindow="675" windowWidth="11715" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2928,16 +2928,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>57182</c:v>
+                  <c:v>58756</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54329</c:v>
+                  <c:v>55072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50281</c:v>
+                  <c:v>51981</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47981</c:v>
+                  <c:v>48061</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43517</c:v>
@@ -5042,6 +5042,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>15921</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>601</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5127,6 +5148,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5081</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3751</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2681</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1881</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1161</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5773,6 +5815,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>15651</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10441</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>801</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5858,6 +5921,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4931</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4781</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2561</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1771</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1451</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6409,19 +6493,19 @@
                   <c:v>37450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26937</c:v>
+                  <c:v>29707</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21223</c:v>
+                  <c:v>24211</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17734</c:v>
+                  <c:v>18124</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14923</c:v>
+                  <c:v>14611</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14817</c:v>
+                  <c:v>13967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6508,6 +6592,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>411</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6593,6 +6698,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2341</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2381</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12751,8 +12877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="V7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC21" sqref="W18:AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -12980,6 +13106,27 @@
       <c r="V3" t="s">
         <v>2</v>
       </c>
+      <c r="W3">
+        <v>15921</v>
+      </c>
+      <c r="X3">
+        <v>801</v>
+      </c>
+      <c r="Y3">
+        <v>631</v>
+      </c>
+      <c r="Z3">
+        <v>841</v>
+      </c>
+      <c r="AA3">
+        <v>761</v>
+      </c>
+      <c r="AB3">
+        <v>681</v>
+      </c>
+      <c r="AC3">
+        <v>601</v>
+      </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -13032,6 +13179,27 @@
       </c>
       <c r="V4" t="s">
         <v>3</v>
+      </c>
+      <c r="W4">
+        <v>5171</v>
+      </c>
+      <c r="X4">
+        <v>5081</v>
+      </c>
+      <c r="Y4">
+        <v>3751</v>
+      </c>
+      <c r="Z4">
+        <v>2681</v>
+      </c>
+      <c r="AA4">
+        <v>2221</v>
+      </c>
+      <c r="AB4">
+        <v>1881</v>
+      </c>
+      <c r="AC4">
+        <v>1161</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -13065,16 +13233,16 @@
         <v>4</v>
       </c>
       <c r="M5">
-        <v>57182</v>
+        <v>58756</v>
       </c>
       <c r="N5">
-        <v>54329</v>
+        <v>55072</v>
       </c>
       <c r="O5">
-        <v>50281</v>
+        <v>51981</v>
       </c>
       <c r="P5">
-        <v>47981</v>
+        <v>48061</v>
       </c>
       <c r="Q5">
         <v>43517</v>
@@ -13176,19 +13344,19 @@
       </c>
       <c r="M8">
         <f t="shared" ref="M8:S8" si="1">M5-M2</f>
-        <v>5276</v>
+        <v>6850</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>4168</v>
+        <v>4911</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>3390</v>
+        <v>5090</v>
       </c>
       <c r="P8">
         <f t="shared" si="1"/>
-        <v>5090</v>
+        <v>5170</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
@@ -13443,6 +13611,27 @@
       <c r="V11" t="s">
         <v>2</v>
       </c>
+      <c r="W11">
+        <v>15651</v>
+      </c>
+      <c r="X11">
+        <v>12651</v>
+      </c>
+      <c r="Y11">
+        <v>10441</v>
+      </c>
+      <c r="Z11">
+        <v>5231</v>
+      </c>
+      <c r="AA11">
+        <v>921</v>
+      </c>
+      <c r="AB11">
+        <v>831</v>
+      </c>
+      <c r="AC11">
+        <v>801</v>
+      </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -13495,6 +13684,27 @@
       </c>
       <c r="V12" t="s">
         <v>3</v>
+      </c>
+      <c r="W12">
+        <v>5871</v>
+      </c>
+      <c r="X12">
+        <v>4931</v>
+      </c>
+      <c r="Y12">
+        <v>4781</v>
+      </c>
+      <c r="Z12">
+        <v>2891</v>
+      </c>
+      <c r="AA12">
+        <v>2561</v>
+      </c>
+      <c r="AB12">
+        <v>1771</v>
+      </c>
+      <c r="AC12">
+        <v>1451</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -13839,19 +14049,19 @@
         <v>37450</v>
       </c>
       <c r="Y18">
-        <v>26937</v>
+        <v>29707</v>
       </c>
       <c r="Z18">
-        <v>21223</v>
+        <v>24211</v>
       </c>
       <c r="AA18">
-        <v>17734</v>
+        <v>18124</v>
       </c>
       <c r="AB18">
-        <v>14923</v>
+        <v>14611</v>
       </c>
       <c r="AC18">
-        <v>14817</v>
+        <v>13967</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -13906,6 +14116,27 @@
       <c r="V19" t="s">
         <v>2</v>
       </c>
+      <c r="W19">
+        <v>9101</v>
+      </c>
+      <c r="X19">
+        <v>851</v>
+      </c>
+      <c r="Y19">
+        <v>701</v>
+      </c>
+      <c r="Z19">
+        <v>561</v>
+      </c>
+      <c r="AA19">
+        <v>521</v>
+      </c>
+      <c r="AB19">
+        <v>501</v>
+      </c>
+      <c r="AC19">
+        <v>411</v>
+      </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -13958,6 +14189,27 @@
       </c>
       <c r="V20" t="s">
         <v>3</v>
+      </c>
+      <c r="W20">
+        <v>4991</v>
+      </c>
+      <c r="X20">
+        <v>4271</v>
+      </c>
+      <c r="Y20">
+        <v>3931</v>
+      </c>
+      <c r="Z20">
+        <v>3741</v>
+      </c>
+      <c r="AA20">
+        <v>2971</v>
+      </c>
+      <c r="AB20">
+        <v>2341</v>
+      </c>
+      <c r="AC20">
+        <v>2381</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">

--- a/test/output/mem_lifetime.xlsx
+++ b/test/output/mem_lifetime.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA33B29-EAD5-4EFA-991E-423A172DE077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A9125E-9C96-4CBC-87B0-FFA05AFE0BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11055" yWindow="675" windowWidth="11715" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -195,7 +208,7 @@
           <c:x val="0.14581701006539269"/>
           <c:y val="4.3598890210067381E-2"/>
           <c:w val="0.60788258203967394"/>
-          <c:h val="0.78970760343423185"/>
+          <c:h val="0.82868871353244733"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -768,6 +781,7 @@
         <c:axId val="350831880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="80000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -975,1556 +989,12 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1365900028868581"/>
-          <c:y val="4.8500881834215165E-2"/>
-          <c:w val="0.59223959541439286"/>
-          <c:h val="0.79251864350289558"/>
+          <c:x val="0.15483877245752825"/>
+          <c:y val="4.2995278213612362E-2"/>
+          <c:w val="0.57824894689267492"/>
+          <c:h val="0.82779698596021045"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E-DSR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$C$9:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$10:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>57847</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>55896</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>53248</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>52973</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>52930</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>51891</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48511</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B78F-4134-AC23-5B3238A3B9D4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NRCA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$C$9:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$11:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>20437</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15881</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14531</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13541</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13861</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12121</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9361</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B78F-4134-AC23-5B3238A3B9D4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Optimal LEACH</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$C$9:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$12:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4941</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3861</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3101</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2901</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2391</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2351</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B78F-4134-AC23-5B3238A3B9D4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>my</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$C$9:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$13:$I$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>66649</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64534</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62828</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>61621</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>59201</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>57357</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>54948</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-98A7-45CE-9FE9-F14173A28486}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="350825216"/>
-        <c:axId val="350822864"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="350825216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>感測器總數</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="350822864"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="350822864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>network</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
-                  <a:t> lifetime(S)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="350825216"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1365900028868581"/>
-          <c:y val="4.8500881834215165E-2"/>
-          <c:w val="0.59223959541439286"/>
-          <c:h val="0.79251864350289558"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E-DSR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$C$17:$I$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$18:$I$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>46318</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43173</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36891</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29701</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18183</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12141</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10711</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B761-4718-B9FE-D905AD9E12AE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NRCA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$C$17:$I$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$19:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4641</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>851</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>801</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>741</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>671</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>661</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>651</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B761-4718-B9FE-D905AD9E12AE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Optimal LEACH</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$C$17:$I$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$20:$I$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4681</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4181</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4091</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2721</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2681</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2341</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2031</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B761-4718-B9FE-D905AD9E12AE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>my</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$C$17:$I$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$21:$I$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>46589</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45211</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43041</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41857</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44312</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45136</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>47592</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B761-4718-B9FE-D905AD9E12AE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="350825216"/>
-        <c:axId val="350822864"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="350825216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>感測器總數</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="350822864"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="350822864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>network</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
-                  <a:t> lifetime(S)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="350825216"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -3095,6 +1565,7 @@
         <c:axId val="350831880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="80000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3271,7 +1742,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -4048,7 +2519,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -4645,6 +3116,7 @@
         <c:axId val="350822864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="80000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4835,7 +3307,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -4851,7 +3323,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14808144586746888"/>
+          <c:y val="4.2995278213612362E-2"/>
+          <c:w val="0.58380793519613428"/>
+          <c:h val="0.81997966264864453"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -5422,6 +3904,7 @@
         <c:axId val="350831880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="80000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5532,1570 +4015,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1365900028868581"/>
-          <c:y val="4.8500881834215165E-2"/>
-          <c:w val="0.59223959541439286"/>
-          <c:h val="0.79251864350289558"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E-DSR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$9:$AC$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$10:$AC$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>59290</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>58011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56734</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>54033</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>52455</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>51685</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50818</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D788-4E5F-9119-72ACD7ECF740}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NRCA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$9:$AC$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$11:$AC$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>15651</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12651</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10441</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5231</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>921</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>831</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>801</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D788-4E5F-9119-72ACD7ECF740}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Optimal LEACH</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$9:$AC$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$12:$AC$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5871</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4931</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4781</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2891</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2561</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1771</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1451</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D788-4E5F-9119-72ACD7ECF740}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>my</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$9:$AC$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$13:$AC$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>69131</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66597</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64684</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>61780</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60405</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59229</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56136</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D788-4E5F-9119-72ACD7ECF740}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="350825216"/>
-        <c:axId val="350822864"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="350825216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>感測器總數</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="350822864"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="350822864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>network</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
-                  <a:t> lifetime(S)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="350825216"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1365900028868581"/>
-          <c:y val="4.8500881834215165E-2"/>
-          <c:w val="0.59223959541439286"/>
-          <c:h val="0.79251864350289558"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E-DSR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$17:$AC$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$18:$AC$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>44914</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37450</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29707</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24211</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18124</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14611</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13967</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6EDF-4BEF-B8D4-F2346E2C60CB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NRCA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$17:$AC$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$19:$AC$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>9101</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>851</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>701</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>561</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>521</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>411</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6EDF-4BEF-B8D4-F2346E2C60CB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Optimal LEACH</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$17:$AC$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$20:$AC$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4991</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4271</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3931</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3741</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2971</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2341</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2381</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6EDF-4BEF-B8D4-F2346E2C60CB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>my</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$17:$AC$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$21:$AC$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>50110</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42611</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30741</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27284</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23690</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22634</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6EDF-4BEF-B8D4-F2346E2C60CB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="350825216"/>
-        <c:axId val="350822864"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="350825216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>感測器總數</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="350822864"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="350822864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>network</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
-                  <a:t> lifetime(S)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="350825216"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.75181584137546864"/>
-          <c:y val="0.33816682005658377"/>
-          <c:w val="0.24053597506812605"/>
-          <c:h val="0.32366635988683234"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7362,166 +4281,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -10127,2104 +6886,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>174811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12251,27 +6926,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>586194</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>155121</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>31295</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="圖表 5">
+        <xdr:cNvPr id="10" name="圖表 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0C43A98-315B-40BB-98A3-6BE5E6615749}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -12287,23 +6964,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>258536</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>179979</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>106536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>452303</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>573181</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
+      <xdr:rowOff>195623</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="圖表 6">
+        <xdr:cNvPr id="11" name="圖表 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA98D26-C4E1-4C65-9581-F7531705F7CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BA0746D-AE66-4418-B1A9-B4DAB1555239}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12326,22 +7003,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>108858</xdr:rowOff>
+      <xdr:colOff>136711</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>143276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>164375</xdr:rowOff>
+      <xdr:colOff>573181</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>143275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="圖表 9">
+        <xdr:cNvPr id="12" name="圖表 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0C43A98-315B-40BB-98A3-6BE5E6615749}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69F5FA70-5DE6-43CA-A86C-20FEA49C3D6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12363,92 +7040,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>538568</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>140154</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>16328</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="圖表 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BA0746D-AE66-4418-B1A9-B4DAB1555239}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="圖表 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69F5FA70-5DE6-43CA-A86C-20FEA49C3D6D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>55517</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12469,83 +7070,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>681443</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>31296</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>117020</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="圖表 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682D210F-7F4D-424B-9925-7AF47723B2F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="圖表 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B0BF35-9AF8-4CC6-A610-FF9D80C1D2E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12555,9 +7080,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -12595,9 +7120,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12630,26 +7155,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12682,26 +7190,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12877,8 +7368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC21" sqref="W18:AC21"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -14218,25 +8709,25 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>46589</v>
+        <v>49098</v>
       </c>
       <c r="D21">
-        <v>45211</v>
+        <v>46016</v>
       </c>
       <c r="E21">
-        <v>43041</v>
+        <v>45401</v>
       </c>
       <c r="F21">
-        <v>41857</v>
+        <v>43879</v>
       </c>
       <c r="G21">
-        <v>44312</v>
+        <v>43554</v>
       </c>
       <c r="H21">
-        <v>45136</v>
+        <v>41641</v>
       </c>
       <c r="I21">
-        <v>47592</v>
+        <v>37087</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" t="s">

--- a/test/output/mem_lifetime.xlsx
+++ b/test/output/mem_lifetime.xlsx
@@ -1,29 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A9125E-9C96-4CBC-87B0-FFA05AFE0BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F46C98-26DB-4F2D-9EDE-6C4674B9CF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -106,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,6 +122,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -156,10 +161,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3737,25 +3744,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>57966</c:v>
+                  <c:v>56092</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56031</c:v>
+                  <c:v>51756</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52701</c:v>
+                  <c:v>47921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50241</c:v>
+                  <c:v>44858</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47228</c:v>
+                  <c:v>39995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42143</c:v>
+                  <c:v>34696</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38277</c:v>
+                  <c:v>30676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3764,6 +3771,780 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DD7B-4D88-BC40-D6136FE6738E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="350829136"/>
+        <c:axId val="350831880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="350829136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>感測器總數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350831880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="350831880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="80000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>network lifetime(S)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350829136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14808144586746888"/>
+          <c:y val="4.2995278213612362E-2"/>
+          <c:w val="0.58380793519613428"/>
+          <c:h val="0.81997966264864453"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$L$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E-DSR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$W$1:$AC$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$W$10:$AC$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>59290</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54033</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52455</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51685</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-548E-42AE-851E-BBA2B9F473FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$L$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NRCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$W$1:$AC$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$W$11:$AC$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>15651</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10441</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-548E-42AE-851E-BBA2B9F473FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$L$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimal LEACH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$W$1:$AC$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$W$12:$AC$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4931</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4781</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2561</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1771</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1451</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-548E-42AE-851E-BBA2B9F473FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$L$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>my</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$W$1:$AC$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$W$13:$AC$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>66346.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62977</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55790</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55624</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-548E-42AE-851E-BBA2B9F473FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4281,6 +5062,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -6366,6 +7187,527 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7076,13 +8418,51 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="圖表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892B5D6E-601A-4893-B7CB-AB3F82C71136}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7120,9 +8500,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7155,9 +8535,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7190,9 +8587,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7368,8 +8782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7437,28 +8851,29 @@
       <c r="S1" s="1">
         <v>1000</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="1">
+      <c r="V1" s="3"/>
+      <c r="W1" s="4">
         <v>400</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="4">
         <v>500</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="4">
         <v>600</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="4">
         <v>700</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="4">
         <v>800</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="4">
         <v>900</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="4">
         <v>1000</v>
       </c>
     </row>
@@ -7517,31 +8932,31 @@
       <c r="S2">
         <v>32134</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="3">
         <v>53077</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="3">
         <v>50864</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="3">
         <v>47752</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="3">
         <v>42841</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="3">
         <v>37273</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="3">
         <v>31774</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="3">
         <v>28441</v>
       </c>
     </row>
@@ -7594,28 +9009,29 @@
       <c r="S3">
         <v>601</v>
       </c>
-      <c r="V3" t="s">
+      <c r="U3" s="3"/>
+      <c r="V3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="3">
         <v>15921</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="3">
         <v>801</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="3">
         <v>631</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="3">
         <v>841</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="3">
         <v>761</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="3">
         <v>681</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="3">
         <v>601</v>
       </c>
     </row>
@@ -7668,28 +9084,29 @@
       <c r="S4">
         <v>1961</v>
       </c>
-      <c r="V4" t="s">
+      <c r="U4" s="3"/>
+      <c r="V4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="3">
         <v>5171</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="3">
         <v>5081</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="3">
         <v>3751</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="3">
         <v>2681</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="3">
         <v>2221</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="3">
         <v>1881</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="3">
         <v>1161</v>
       </c>
     </row>
@@ -7744,30 +9161,30 @@
       <c r="S5">
         <v>36271</v>
       </c>
-      <c r="U5" s="2"/>
-      <c r="V5" t="s">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W5">
-        <v>57966</v>
-      </c>
-      <c r="X5">
-        <v>56031</v>
-      </c>
-      <c r="Y5">
-        <v>52701</v>
-      </c>
-      <c r="Z5">
-        <v>50241</v>
-      </c>
-      <c r="AA5">
-        <v>47228</v>
-      </c>
-      <c r="AB5">
-        <v>42143</v>
-      </c>
-      <c r="AC5">
-        <v>38277</v>
+      <c r="W5" s="3">
+        <v>56092</v>
+      </c>
+      <c r="X5" s="3">
+        <v>51756</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>47921</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>44858</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>39995</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>34696</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>30676</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -7779,10 +9196,17 @@
       <c r="L6" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="2"/>
-      <c r="V6" t="s">
+      <c r="U6" s="3"/>
+      <c r="V6" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -7793,10 +9217,17 @@
       <c r="L7" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="2"/>
-      <c r="V7" t="s">
+      <c r="U7" s="3"/>
+      <c r="V7" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -7861,36 +9292,37 @@
         <f t="shared" si="1"/>
         <v>4137</v>
       </c>
-      <c r="V8" t="s">
+      <c r="U8" s="3"/>
+      <c r="V8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="3">
         <f t="shared" ref="W8:AC8" si="2">W5-W2</f>
-        <v>4889</v>
-      </c>
-      <c r="X8">
+        <v>3015</v>
+      </c>
+      <c r="X8" s="3">
         <f t="shared" si="2"/>
-        <v>5167</v>
-      </c>
-      <c r="Y8">
+        <v>892</v>
+      </c>
+      <c r="Y8" s="3">
         <f t="shared" si="2"/>
-        <v>4949</v>
-      </c>
-      <c r="Z8">
+        <v>169</v>
+      </c>
+      <c r="Z8" s="3">
         <f t="shared" si="2"/>
-        <v>7400</v>
-      </c>
-      <c r="AA8">
+        <v>2017</v>
+      </c>
+      <c r="AA8" s="3">
         <f t="shared" si="2"/>
-        <v>9955</v>
-      </c>
-      <c r="AB8">
+        <v>2722</v>
+      </c>
+      <c r="AB8" s="3">
         <f t="shared" si="2"/>
-        <v>10369</v>
-      </c>
-      <c r="AC8">
+        <v>2922</v>
+      </c>
+      <c r="AC8" s="3">
         <f t="shared" si="2"/>
-        <v>9836</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -7942,28 +9374,29 @@
       <c r="S9" s="1">
         <v>1000</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="W9" s="1">
+      <c r="V9" s="3"/>
+      <c r="W9" s="4">
         <v>400</v>
       </c>
-      <c r="X9" s="1">
+      <c r="X9" s="4">
         <v>500</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Y9" s="4">
         <v>600</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Z9" s="4">
         <v>700</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AA9" s="4">
         <v>800</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB9" s="4">
         <v>900</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AC9" s="4">
         <v>1000</v>
       </c>
     </row>
@@ -8022,31 +9455,31 @@
       <c r="S10">
         <v>46662</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="3">
         <v>59290</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="3">
         <v>58011</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="3">
         <v>56734</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="3">
         <v>54033</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="3">
         <v>52455</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="3">
         <v>51685</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="3">
         <v>50818</v>
       </c>
     </row>
@@ -8099,28 +9532,29 @@
       <c r="S11">
         <v>931</v>
       </c>
-      <c r="V11" t="s">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="3">
         <v>15651</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="3">
         <v>12651</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="3">
         <v>10441</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="3">
         <v>5231</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="3">
         <v>921</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="3">
         <v>831</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="3">
         <v>801</v>
       </c>
     </row>
@@ -8173,28 +9607,29 @@
       <c r="S12">
         <v>1871</v>
       </c>
-      <c r="V12" t="s">
+      <c r="U12" s="3"/>
+      <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="3">
         <v>5871</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="3">
         <v>4931</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="3">
         <v>4781</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="3">
         <v>2891</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="3">
         <v>2561</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="3">
         <v>1771</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="3">
         <v>1451</v>
       </c>
     </row>
@@ -8249,30 +9684,30 @@
       <c r="S13">
         <v>58427</v>
       </c>
-      <c r="U13" s="2"/>
-      <c r="V13" t="s">
+      <c r="U13" s="3"/>
+      <c r="V13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W13">
-        <v>69131</v>
-      </c>
-      <c r="X13">
-        <v>66597</v>
-      </c>
-      <c r="Y13">
-        <v>64684</v>
-      </c>
-      <c r="Z13">
-        <v>61780</v>
-      </c>
-      <c r="AA13">
-        <v>60405</v>
-      </c>
-      <c r="AB13">
-        <v>59229</v>
-      </c>
-      <c r="AC13">
-        <v>56136</v>
+      <c r="W13" s="3">
+        <v>66346.5</v>
+      </c>
+      <c r="X13" s="3">
+        <v>62977</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>62097</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>60115</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>55790</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>55624</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>54158</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -8371,31 +9806,31 @@
       </c>
       <c r="W16">
         <f>W13-W10</f>
-        <v>9841</v>
+        <v>7056.5</v>
       </c>
       <c r="X16">
         <f t="shared" ref="X16:AC16" si="5">X13-X10</f>
-        <v>8586</v>
+        <v>4966</v>
       </c>
       <c r="Y16">
         <f t="shared" si="5"/>
-        <v>7950</v>
+        <v>5363</v>
       </c>
       <c r="Z16">
         <f t="shared" si="5"/>
-        <v>7747</v>
+        <v>6082</v>
       </c>
       <c r="AA16">
         <f t="shared" si="5"/>
-        <v>7950</v>
+        <v>3335</v>
       </c>
       <c r="AB16">
         <f t="shared" si="5"/>
-        <v>7544</v>
+        <v>3939</v>
       </c>
       <c r="AC16">
         <f t="shared" si="5"/>
-        <v>5318</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">

--- a/test/output/mem_lifetime.xlsx
+++ b/test/output/mem_lifetime.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F46C98-26DB-4F2D-9EDE-6C4674B9CF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1B23F2-772A-4152-9677-0DAB29B44877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7764" yWindow="1680" windowWidth="14640" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -3744,25 +3744,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>56092</c:v>
+                  <c:v>58451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51756</c:v>
+                  <c:v>55614</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47921</c:v>
+                  <c:v>51416</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44858</c:v>
+                  <c:v>49746</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39995</c:v>
+                  <c:v>48404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34696</c:v>
+                  <c:v>42713</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30676</c:v>
+                  <c:v>38363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4518,25 +4518,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>66346.5</c:v>
+                  <c:v>61634</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62977</c:v>
+                  <c:v>60870</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62097</c:v>
+                  <c:v>60736</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60115</c:v>
+                  <c:v>59066</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55790</c:v>
+                  <c:v>56724</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55624</c:v>
+                  <c:v>57448</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54158</c:v>
+                  <c:v>53456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8783,26 +8783,26 @@
   <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="17.875" customWidth="1"/>
-    <col min="11" max="11" width="10.875" customWidth="1"/>
-    <col min="12" max="18" width="9.75" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="12" max="18" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>28441</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>4</v>
@@ -9166,28 +9166,28 @@
         <v>4</v>
       </c>
       <c r="W5" s="3">
-        <v>56092</v>
+        <v>58451</v>
       </c>
       <c r="X5" s="3">
-        <v>51756</v>
+        <v>55614</v>
       </c>
       <c r="Y5" s="3">
-        <v>47921</v>
+        <v>51416</v>
       </c>
       <c r="Z5" s="3">
-        <v>44858</v>
+        <v>49746</v>
       </c>
       <c r="AA5" s="3">
-        <v>39995</v>
+        <v>48404</v>
       </c>
       <c r="AB5" s="3">
-        <v>34696</v>
+        <v>42713</v>
       </c>
       <c r="AC5" s="3">
-        <v>30676</v>
+        <v>38363</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>6</v>
@@ -9208,7 +9208,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>7</v>
@@ -9229,7 +9229,7 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -9298,34 +9298,34 @@
       </c>
       <c r="W8" s="3">
         <f t="shared" ref="W8:AC8" si="2">W5-W2</f>
-        <v>3015</v>
+        <v>5374</v>
       </c>
       <c r="X8" s="3">
         <f t="shared" si="2"/>
-        <v>892</v>
+        <v>4750</v>
       </c>
       <c r="Y8" s="3">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>3664</v>
       </c>
       <c r="Z8" s="3">
         <f t="shared" si="2"/>
-        <v>2017</v>
+        <v>6905</v>
       </c>
       <c r="AA8" s="3">
         <f t="shared" si="2"/>
-        <v>2722</v>
+        <v>11131</v>
       </c>
       <c r="AB8" s="3">
         <f t="shared" si="2"/>
-        <v>2922</v>
+        <v>10939</v>
       </c>
       <c r="AC8" s="3">
         <f t="shared" si="2"/>
-        <v>2235</v>
+        <v>9922</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>50818</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>3</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>4</v>
@@ -9689,28 +9689,28 @@
         <v>4</v>
       </c>
       <c r="W13" s="3">
-        <v>66346.5</v>
+        <v>61634</v>
       </c>
       <c r="X13" s="3">
-        <v>62977</v>
+        <v>60870</v>
       </c>
       <c r="Y13" s="3">
-        <v>62097</v>
+        <v>60736</v>
       </c>
       <c r="Z13" s="3">
-        <v>60115</v>
+        <v>59066</v>
       </c>
       <c r="AA13" s="3">
-        <v>55790</v>
+        <v>56724</v>
       </c>
       <c r="AB13" s="3">
-        <v>55624</v>
+        <v>57448</v>
       </c>
       <c r="AC13" s="3">
-        <v>54158</v>
+        <v>53456</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>6</v>
@@ -9724,7 +9724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>7</v>
@@ -9738,7 +9738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -9801,39 +9801,39 @@
         <f t="shared" si="4"/>
         <v>11765</v>
       </c>
-      <c r="V16" t="s">
+      <c r="V16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="3">
         <f>W13-W10</f>
-        <v>7056.5</v>
-      </c>
-      <c r="X16">
+        <v>2344</v>
+      </c>
+      <c r="X16" s="3">
         <f t="shared" ref="X16:AC16" si="5">X13-X10</f>
-        <v>4966</v>
-      </c>
-      <c r="Y16">
+        <v>2859</v>
+      </c>
+      <c r="Y16" s="3">
         <f t="shared" si="5"/>
-        <v>5363</v>
-      </c>
-      <c r="Z16">
+        <v>4002</v>
+      </c>
+      <c r="Z16" s="3">
         <f t="shared" si="5"/>
-        <v>6082</v>
-      </c>
-      <c r="AA16">
+        <v>5033</v>
+      </c>
+      <c r="AA16" s="3">
         <f t="shared" si="5"/>
-        <v>3335</v>
-      </c>
-      <c r="AB16">
+        <v>4269</v>
+      </c>
+      <c r="AB16" s="3">
         <f t="shared" si="5"/>
-        <v>3939</v>
-      </c>
-      <c r="AC16">
+        <v>5763</v>
+      </c>
+      <c r="AC16" s="3">
         <f t="shared" si="5"/>
-        <v>3340</v>
+        <v>2638</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>13967</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>2</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>3</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>4</v>
@@ -10215,7 +10215,7 @@
         <v>22634</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>11</v>
       </c>

--- a/test/output/mem_lifetime.xlsx
+++ b/test/output/mem_lifetime.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1B23F2-772A-4152-9677-0DAB29B44877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B171974-D0FB-426F-9A46-4112F9B25342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7764" yWindow="1680" windowWidth="14640" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2179,25 +2179,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>71691</c:v>
+                  <c:v>64627</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67165</c:v>
+                  <c:v>59178</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63206</c:v>
+                  <c:v>65122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62337</c:v>
+                  <c:v>61143</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61441</c:v>
+                  <c:v>61874</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59076</c:v>
+                  <c:v>57179</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58427</c:v>
+                  <c:v>54289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2956,25 +2956,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>48291</c:v>
+                  <c:v>35749</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41991</c:v>
+                  <c:v>33041</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37187</c:v>
+                  <c:v>33166</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34995</c:v>
+                  <c:v>29741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30867</c:v>
+                  <c:v>28101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26445</c:v>
+                  <c:v>25211</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23990</c:v>
+                  <c:v>25685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4545,6 +4545,780 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-548E-42AE-851E-BBA2B9F473FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="350829136"/>
+        <c:axId val="350831880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="350829136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>感測器總數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350831880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="350831880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="80000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>network lifetime(S)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350829136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14808144586746888"/>
+          <c:y val="4.2995278213612362E-2"/>
+          <c:w val="0.58380793519613428"/>
+          <c:h val="0.81997966264864453"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$L$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E-DSR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$W$1:$AC$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$W$18:$AC$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>44914</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29707</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18124</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14611</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76D7-475C-B472-BE241B571B32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NRCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$W$1:$AC$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$W$19:$AC$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-76D7-475C-B472-BE241B571B32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$L$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimal LEACH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$W$1:$AC$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$W$20:$AC$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2341</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-76D7-475C-B472-BE241B571B32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$L$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>my</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$W$1:$AC$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$W$21:$AC$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>35432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33531</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25511</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-76D7-475C-B472-BE241B571B32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5102,6 +5876,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -7708,6 +8522,527 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8420,16 +9755,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>268942</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>62754</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>109818</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8451,6 +9786,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>463923</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="圖表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941BCEFA-C4A3-44DD-BADE-883CB7D97A07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8782,8 +10155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S13" sqref="K9:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -9350,28 +10723,29 @@
       <c r="I9" s="1">
         <v>1000</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="1">
+      <c r="L9" s="3"/>
+      <c r="M9" s="4">
         <v>400</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="4">
         <v>500</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>600</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>700</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>800</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>900</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>1000</v>
       </c>
       <c r="U9" s="3" t="s">
@@ -9428,31 +10802,31 @@
       <c r="I10">
         <v>48511</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>58701</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>57196</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>54819</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>54200</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <v>53075</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="3">
         <v>51138</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="3">
         <v>46662</v>
       </c>
       <c r="U10" s="4" t="s">
@@ -9508,28 +10882,29 @@
       <c r="I11">
         <v>9361</v>
       </c>
-      <c r="L11" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <v>17821</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="3">
         <v>12431</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="3">
         <v>8321</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="3">
         <v>4451</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="3">
         <v>1131</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="3">
         <v>1411</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="3">
         <v>931</v>
       </c>
       <c r="U11" s="3"/>
@@ -9583,28 +10958,29 @@
       <c r="I12">
         <v>2351</v>
       </c>
-      <c r="L12" t="s">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="3">
         <v>5141</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="3">
         <v>5001</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="3">
         <v>4581</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="3">
         <v>3251</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="3">
         <v>2881</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="3">
         <v>2311</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="3">
         <v>1871</v>
       </c>
       <c r="U12" s="3"/>
@@ -9659,30 +11035,30 @@
       <c r="I13">
         <v>54948</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" t="s">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M13">
-        <v>71691</v>
-      </c>
-      <c r="N13">
-        <v>67165</v>
-      </c>
-      <c r="O13">
-        <v>63206</v>
-      </c>
-      <c r="P13">
-        <v>62337</v>
-      </c>
-      <c r="Q13">
-        <v>61441</v>
-      </c>
-      <c r="R13">
-        <v>59076</v>
-      </c>
-      <c r="S13">
-        <v>58427</v>
+      <c r="M13" s="3">
+        <v>64627</v>
+      </c>
+      <c r="N13" s="3">
+        <v>59178</v>
+      </c>
+      <c r="O13" s="3">
+        <v>65122</v>
+      </c>
+      <c r="P13" s="3">
+        <v>61143</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>61874</v>
+      </c>
+      <c r="R13" s="3">
+        <v>57179</v>
+      </c>
+      <c r="S13" s="3">
+        <v>54289</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3" t="s">
@@ -9775,31 +11151,31 @@
       </c>
       <c r="M16">
         <f>M13-M10</f>
-        <v>12990</v>
+        <v>5926</v>
       </c>
       <c r="N16">
         <f t="shared" ref="N16:S16" si="4">N13-N10</f>
-        <v>9969</v>
+        <v>1982</v>
       </c>
       <c r="O16">
         <f t="shared" si="4"/>
-        <v>8387</v>
+        <v>10303</v>
       </c>
       <c r="P16">
         <f t="shared" si="4"/>
-        <v>8137</v>
+        <v>6943</v>
       </c>
       <c r="Q16">
         <f t="shared" si="4"/>
-        <v>8366</v>
+        <v>8799</v>
       </c>
       <c r="R16">
         <f t="shared" si="4"/>
-        <v>7938</v>
+        <v>6041</v>
       </c>
       <c r="S16">
         <f t="shared" si="4"/>
-        <v>11765</v>
+        <v>7627</v>
       </c>
       <c r="V16" s="3" t="s">
         <v>5</v>
@@ -9858,52 +11234,54 @@
       <c r="I17" s="1">
         <v>1000</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M17" s="1">
+      <c r="L17" s="3"/>
+      <c r="M17" s="4">
         <v>400</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="4">
         <v>500</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>600</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>700</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>800</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>900</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>1000</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="W17" s="1">
+      <c r="V17" s="3"/>
+      <c r="W17" s="4">
         <v>400</v>
       </c>
-      <c r="X17" s="1">
+      <c r="X17" s="4">
         <v>500</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Y17" s="4">
         <v>600</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="Z17" s="4">
         <v>700</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AA17" s="4">
         <v>800</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AB17" s="4">
         <v>900</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AC17" s="4">
         <v>1000</v>
       </c>
     </row>
@@ -9935,58 +11313,58 @@
       <c r="I18">
         <v>10711</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="3">
         <v>44949</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="3">
         <v>36769</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="3">
         <v>32172</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="3">
         <v>29463</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="3">
         <v>23971</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="3">
         <v>15961</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="3">
         <v>9361</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V18" t="s">
+      <c r="V18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="3">
         <v>44914</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="3">
         <v>37450</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="3">
         <v>29707</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="3">
         <v>24211</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="3">
         <v>18124</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" s="3">
         <v>14611</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" s="3">
         <v>13967</v>
       </c>
     </row>
@@ -10015,52 +11393,54 @@
       <c r="I19">
         <v>651</v>
       </c>
-      <c r="L19" t="s">
+      <c r="K19" s="3"/>
+      <c r="L19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="3">
         <v>3901</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="3">
         <v>811</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="3">
         <v>731</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="3">
         <v>551</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="3">
         <v>511</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="3">
         <v>511</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="3">
         <v>501</v>
       </c>
-      <c r="V19" t="s">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="3">
         <v>9101</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="3">
         <v>851</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="3">
         <v>701</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="3">
         <v>561</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="3">
         <v>521</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" s="3">
         <v>501</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" s="3">
         <v>411</v>
       </c>
     </row>
@@ -10089,52 +11469,54 @@
       <c r="I20">
         <v>2031</v>
       </c>
-      <c r="L20" t="s">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="3">
         <v>4121</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="3">
         <v>4111</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="3">
         <v>3541</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="3">
         <v>2801</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="3">
         <v>2581</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="3">
         <v>2021</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="3">
         <v>1821</v>
       </c>
-      <c r="V20" t="s">
+      <c r="U20" s="3"/>
+      <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="3">
         <v>4991</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="3">
         <v>4271</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="3">
         <v>3931</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="3">
         <v>3741</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="3">
         <v>2971</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" s="3">
         <v>2341</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" s="3">
         <v>2381</v>
       </c>
     </row>
@@ -10164,55 +11546,55 @@
       <c r="I21">
         <v>37087</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" t="s">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21">
-        <v>48291</v>
-      </c>
-      <c r="N21">
-        <v>41991</v>
-      </c>
-      <c r="O21">
-        <v>37187</v>
-      </c>
-      <c r="P21">
-        <v>34995</v>
-      </c>
-      <c r="Q21">
-        <v>30867</v>
-      </c>
-      <c r="R21">
-        <v>26445</v>
-      </c>
-      <c r="S21">
-        <v>23990</v>
-      </c>
-      <c r="U21" s="2"/>
-      <c r="V21" t="s">
+      <c r="M21" s="3">
+        <v>35749</v>
+      </c>
+      <c r="N21" s="3">
+        <v>33041</v>
+      </c>
+      <c r="O21" s="3">
+        <v>33166</v>
+      </c>
+      <c r="P21" s="3">
+        <v>29741</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>28101</v>
+      </c>
+      <c r="R21" s="3">
+        <v>25211</v>
+      </c>
+      <c r="S21" s="3">
+        <v>25685</v>
+      </c>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W21">
-        <v>50110</v>
-      </c>
-      <c r="X21">
-        <v>42611</v>
-      </c>
-      <c r="Y21">
-        <v>35600</v>
-      </c>
-      <c r="Z21">
-        <v>30741</v>
-      </c>
-      <c r="AA21">
-        <v>27284</v>
-      </c>
-      <c r="AB21">
-        <v>23690</v>
-      </c>
-      <c r="AC21">
-        <v>22634</v>
+      <c r="W21" s="3">
+        <v>35432</v>
+      </c>
+      <c r="X21" s="3">
+        <v>33531</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>30521</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>29193</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>27111</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>25511</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>25083</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">

--- a/test/output/mem_lifetime.xlsx
+++ b/test/output/mem_lifetime.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B171974-D0FB-426F-9A46-4112F9B25342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7D6A2B-D2B1-4716-AE8E-5E562BC42AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7764" yWindow="1680" windowWidth="14640" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -303,25 +303,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>56766</c:v>
+                  <c:v>54449</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51170</c:v>
+                  <c:v>49973</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49056</c:v>
+                  <c:v>47936</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>46541</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45867</c:v>
+                  <c:v>45093</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38761</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29191</c:v>
+                  <c:v>37141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -621,25 +621,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>58681</c:v>
+                  <c:v>60581</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55226</c:v>
+                  <c:v>54731</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52977</c:v>
+                  <c:v>53183</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49431</c:v>
+                  <c:v>50161</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48618</c:v>
+                  <c:v>48269</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45196</c:v>
+                  <c:v>47383</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41002</c:v>
+                  <c:v>45979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1405,25 +1405,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>58756</c:v>
+                  <c:v>59811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55072</c:v>
+                  <c:v>56487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51981</c:v>
+                  <c:v>52229</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48061</c:v>
+                  <c:v>48961</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43517</c:v>
+                  <c:v>45724</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39453</c:v>
+                  <c:v>41626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36271</c:v>
+                  <c:v>37001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2179,25 +2179,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>64627</c:v>
+                  <c:v>60282</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59178</c:v>
+                  <c:v>59736</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65122</c:v>
+                  <c:v>59045</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61143</c:v>
+                  <c:v>59069</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61874</c:v>
+                  <c:v>59044</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57179</c:v>
+                  <c:v>57151</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54289</c:v>
+                  <c:v>56644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2956,25 +2956,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>35749</c:v>
+                  <c:v>36031</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33041</c:v>
+                  <c:v>33291</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33166</c:v>
+                  <c:v>30551</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29741</c:v>
+                  <c:v>30051</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>28101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25211</c:v>
+                  <c:v>28041</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25685</c:v>
+                  <c:v>26451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3744,19 +3744,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>58451</c:v>
+                  <c:v>56237</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55614</c:v>
+                  <c:v>53610</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51416</c:v>
+                  <c:v>51385</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>49746</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48404</c:v>
+                  <c:v>47576</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>42713</c:v>
@@ -10155,73 +10155,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S13" sqref="K9:S13"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
-    <col min="12" max="18" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="17.875" customWidth="1"/>
+    <col min="11" max="11" width="10.875" customWidth="1"/>
+    <col min="12" max="18" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4">
         <v>400</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="4">
         <v>500</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="4">
         <v>600</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="4">
         <v>700</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="4">
         <v>800</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="4">
         <v>900</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="4">
         <v>1000</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="1">
+      <c r="L1" s="3"/>
+      <c r="M1" s="4">
         <v>400</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="4">
         <v>500</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="4">
         <v>600</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="4">
         <v>700</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="4">
         <v>800</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="4">
         <v>900</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="4">
         <v>1000</v>
       </c>
       <c r="U1" s="3" t="s">
@@ -10250,59 +10252,59 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>56766</v>
-      </c>
-      <c r="D2">
-        <v>51170</v>
-      </c>
-      <c r="E2">
-        <v>49056</v>
-      </c>
-      <c r="F2">
+      <c r="C2" s="3">
+        <v>54449</v>
+      </c>
+      <c r="D2" s="3">
+        <v>49973</v>
+      </c>
+      <c r="E2" s="3">
+        <v>47936</v>
+      </c>
+      <c r="F2" s="3">
         <v>46541</v>
       </c>
-      <c r="G2">
-        <v>45867</v>
-      </c>
-      <c r="H2">
-        <v>38761</v>
-      </c>
-      <c r="I2">
-        <v>29191</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="G2" s="3">
+        <v>45093</v>
+      </c>
+      <c r="H2" s="3">
+        <v>43196</v>
+      </c>
+      <c r="I2" s="3">
+        <v>37141</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>51906</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>50161</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>46891</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>42891</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>37891</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="3">
         <v>33190</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="3">
         <v>32134</v>
       </c>
       <c r="U2" s="4" t="s">
@@ -10333,53 +10335,55 @@
         <v>28441</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>12647</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>9281</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>1131</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>851</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>771</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>701</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>661</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>16081</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>7651</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>2731</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>861</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>751</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="3">
         <v>621</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="3">
         <v>601</v>
       </c>
       <c r="U3" s="3"/>
@@ -10408,53 +10412,55 @@
         <v>601</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>4671</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>4531</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>3111</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>3361</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>3381</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>2091</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>1341</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>4941</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>4269</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>3431</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>3061</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>2671</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="3">
         <v>2061</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="3">
         <v>1961</v>
       </c>
       <c r="U4" s="3"/>
@@ -10483,75 +10489,75 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>58681</v>
-      </c>
-      <c r="D5">
-        <v>55226</v>
-      </c>
-      <c r="E5">
-        <v>52977</v>
-      </c>
-      <c r="F5">
-        <v>49431</v>
-      </c>
-      <c r="G5">
-        <v>48618</v>
-      </c>
-      <c r="H5">
-        <v>45196</v>
-      </c>
-      <c r="I5">
-        <v>41002</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" t="s">
+      <c r="C5" s="3">
+        <v>60581</v>
+      </c>
+      <c r="D5" s="3">
+        <v>54731</v>
+      </c>
+      <c r="E5" s="3">
+        <v>53183</v>
+      </c>
+      <c r="F5" s="3">
+        <v>50161</v>
+      </c>
+      <c r="G5" s="3">
+        <v>48269</v>
+      </c>
+      <c r="H5" s="3">
+        <v>47383</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45979</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>58756</v>
-      </c>
-      <c r="N5">
-        <v>55072</v>
-      </c>
-      <c r="O5">
-        <v>51981</v>
-      </c>
-      <c r="P5">
-        <v>48061</v>
-      </c>
-      <c r="Q5">
-        <v>43517</v>
-      </c>
-      <c r="R5">
-        <v>39453</v>
-      </c>
-      <c r="S5">
-        <v>36271</v>
+      <c r="M5" s="3">
+        <v>59811</v>
+      </c>
+      <c r="N5" s="3">
+        <v>56487</v>
+      </c>
+      <c r="O5" s="3">
+        <v>52229</v>
+      </c>
+      <c r="P5" s="3">
+        <v>48961</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>45724</v>
+      </c>
+      <c r="R5" s="3">
+        <v>41626</v>
+      </c>
+      <c r="S5" s="3">
+        <v>37001</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W5" s="3">
-        <v>58451</v>
+        <v>56237</v>
       </c>
       <c r="X5" s="3">
-        <v>55614</v>
+        <v>53610</v>
       </c>
       <c r="Y5" s="3">
-        <v>51416</v>
+        <v>51385</v>
       </c>
       <c r="Z5" s="3">
         <v>49746</v>
       </c>
       <c r="AA5" s="3">
-        <v>48404</v>
+        <v>47576</v>
       </c>
       <c r="AB5" s="3">
         <v>42713</v>
@@ -10560,7 +10566,7 @@
         <v>38363</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>6</v>
@@ -10581,7 +10587,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>7</v>
@@ -10602,68 +10608,68 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:I8" si="0">C5-C2</f>
-        <v>1915</v>
+        <v>6132</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>4056</v>
+        <v>4758</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>3921</v>
+        <v>5247</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>2890</v>
+        <v>3620</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>2751</v>
+        <v>3176</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>6435</v>
+        <v>4187</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>11811</v>
+        <v>8838</v>
       </c>
       <c r="L8" t="s">
         <v>5</v>
       </c>
       <c r="M8">
         <f t="shared" ref="M8:S8" si="1">M5-M2</f>
-        <v>6850</v>
+        <v>7905</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>4911</v>
+        <v>6326</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>5090</v>
+        <v>5338</v>
       </c>
       <c r="P8">
         <f t="shared" si="1"/>
-        <v>5170</v>
+        <v>6070</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>5626</v>
+        <v>7833</v>
       </c>
       <c r="R8">
         <f t="shared" si="1"/>
-        <v>6263</v>
+        <v>8436</v>
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
-        <v>4137</v>
+        <v>4867</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
@@ -10671,15 +10677,15 @@
       </c>
       <c r="W8" s="3">
         <f t="shared" ref="W8:AC8" si="2">W5-W2</f>
-        <v>5374</v>
+        <v>3160</v>
       </c>
       <c r="X8" s="3">
         <f t="shared" si="2"/>
-        <v>4750</v>
+        <v>2746</v>
       </c>
       <c r="Y8" s="3">
         <f t="shared" si="2"/>
-        <v>3664</v>
+        <v>3633</v>
       </c>
       <c r="Z8" s="3">
         <f t="shared" si="2"/>
@@ -10687,7 +10693,7 @@
       </c>
       <c r="AA8" s="3">
         <f t="shared" si="2"/>
-        <v>11131</v>
+        <v>10303</v>
       </c>
       <c r="AB8" s="3">
         <f t="shared" si="2"/>
@@ -10698,7 +10704,7 @@
         <v>9922</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -10774,7 +10780,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -10857,7 +10863,7 @@
         <v>50818</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -10933,7 +10939,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>3</v>
       </c>
@@ -11009,7 +11015,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>4</v>
@@ -11040,25 +11046,25 @@
         <v>4</v>
       </c>
       <c r="M13" s="3">
-        <v>64627</v>
+        <v>60282</v>
       </c>
       <c r="N13" s="3">
-        <v>59178</v>
+        <v>59736</v>
       </c>
       <c r="O13" s="3">
-        <v>65122</v>
+        <v>59045</v>
       </c>
       <c r="P13" s="3">
-        <v>61143</v>
+        <v>59069</v>
       </c>
       <c r="Q13" s="3">
-        <v>61874</v>
+        <v>59044</v>
       </c>
       <c r="R13" s="3">
-        <v>57179</v>
+        <v>57151</v>
       </c>
       <c r="S13" s="3">
-        <v>54289</v>
+        <v>56644</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3" t="s">
@@ -11086,7 +11092,7 @@
         <v>53456</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>6</v>
@@ -11100,7 +11106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>7</v>
@@ -11114,7 +11120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -11151,31 +11157,31 @@
       </c>
       <c r="M16">
         <f>M13-M10</f>
-        <v>5926</v>
+        <v>1581</v>
       </c>
       <c r="N16">
         <f t="shared" ref="N16:S16" si="4">N13-N10</f>
-        <v>1982</v>
+        <v>2540</v>
       </c>
       <c r="O16">
         <f t="shared" si="4"/>
-        <v>10303</v>
+        <v>4226</v>
       </c>
       <c r="P16">
         <f t="shared" si="4"/>
-        <v>6943</v>
+        <v>4869</v>
       </c>
       <c r="Q16">
         <f t="shared" si="4"/>
-        <v>8799</v>
+        <v>5969</v>
       </c>
       <c r="R16">
         <f t="shared" si="4"/>
-        <v>6041</v>
+        <v>6013</v>
       </c>
       <c r="S16">
         <f t="shared" si="4"/>
-        <v>7627</v>
+        <v>9982</v>
       </c>
       <c r="V16" s="3" t="s">
         <v>5</v>
@@ -11209,7 +11215,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -11285,7 +11291,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -11368,7 +11374,7 @@
         <v>13967</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>2</v>
       </c>
@@ -11444,7 +11450,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>3</v>
       </c>
@@ -11520,7 +11526,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>4</v>
@@ -11551,25 +11557,25 @@
         <v>4</v>
       </c>
       <c r="M21" s="3">
-        <v>35749</v>
+        <v>36031</v>
       </c>
       <c r="N21" s="3">
-        <v>33041</v>
+        <v>33291</v>
       </c>
       <c r="O21" s="3">
-        <v>33166</v>
+        <v>30551</v>
       </c>
       <c r="P21" s="3">
-        <v>29741</v>
+        <v>30051</v>
       </c>
       <c r="Q21" s="3">
         <v>28101</v>
       </c>
       <c r="R21" s="3">
-        <v>25211</v>
+        <v>28041</v>
       </c>
       <c r="S21" s="3">
-        <v>25685</v>
+        <v>26451</v>
       </c>
       <c r="U21" s="3"/>
       <c r="V21" s="3" t="s">
@@ -11597,7 +11603,7 @@
         <v>25083</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>11</v>
       </c>

--- a/test/output/mem_lifetime.xlsx
+++ b/test/output/mem_lifetime.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7D6A2B-D2B1-4716-AE8E-5E562BC42AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEAE0BD-D439-4330-B06F-D35BE9619F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,6 +140,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,12 +169,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2179,25 +2188,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>60282</c:v>
+                  <c:v>69595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59736</c:v>
+                  <c:v>66656</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59045</c:v>
+                  <c:v>65558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59069</c:v>
+                  <c:v>63021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59044</c:v>
+                  <c:v>62053</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57151</c:v>
+                  <c:v>60741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56644</c:v>
+                  <c:v>56891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2956,25 +2965,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>36031</c:v>
+                  <c:v>48605</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33291</c:v>
+                  <c:v>45103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30551</c:v>
+                  <c:v>39987</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30051</c:v>
+                  <c:v>38561</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28101</c:v>
+                  <c:v>36037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28041</c:v>
+                  <c:v>32415</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26451</c:v>
+                  <c:v>31446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4518,25 +4527,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>61634</c:v>
+                  <c:v>64863</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60870</c:v>
+                  <c:v>60740</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60736</c:v>
+                  <c:v>58731</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59066</c:v>
+                  <c:v>59361</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56724</c:v>
+                  <c:v>54741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57448</c:v>
+                  <c:v>57911</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53456</c:v>
+                  <c:v>52341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5291,27 +5300,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>35432</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33531</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30521</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29193</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27111</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25511</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25083</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10155,8 +10143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView tabSelected="1" topLeftCell="J34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20:AC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -11046,50 +11034,50 @@
         <v>4</v>
       </c>
       <c r="M13" s="3">
-        <v>60282</v>
+        <v>69595</v>
       </c>
       <c r="N13" s="3">
-        <v>59736</v>
+        <v>66656</v>
       </c>
       <c r="O13" s="3">
-        <v>59045</v>
+        <v>65558</v>
       </c>
       <c r="P13" s="3">
-        <v>59069</v>
+        <v>63021</v>
       </c>
       <c r="Q13" s="3">
-        <v>59044</v>
+        <v>62053</v>
       </c>
       <c r="R13" s="3">
-        <v>57151</v>
+        <v>60741</v>
       </c>
       <c r="S13" s="3">
-        <v>56644</v>
+        <v>56891</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W13" s="3">
-        <v>61634</v>
-      </c>
-      <c r="X13" s="3">
-        <v>60870</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>60736</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>59066</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>56724</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>57448</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>53456</v>
+      <c r="W13" s="5">
+        <v>64863</v>
+      </c>
+      <c r="X13" s="5">
+        <v>60740</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>58731</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>59361</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>54741</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>57911</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>52341</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -11157,62 +11145,62 @@
       </c>
       <c r="M16">
         <f>M13-M10</f>
-        <v>1581</v>
+        <v>10894</v>
       </c>
       <c r="N16">
         <f t="shared" ref="N16:S16" si="4">N13-N10</f>
-        <v>2540</v>
+        <v>9460</v>
       </c>
       <c r="O16">
         <f t="shared" si="4"/>
-        <v>4226</v>
+        <v>10739</v>
       </c>
       <c r="P16">
         <f t="shared" si="4"/>
-        <v>4869</v>
+        <v>8821</v>
       </c>
       <c r="Q16">
         <f t="shared" si="4"/>
-        <v>5969</v>
+        <v>8978</v>
       </c>
       <c r="R16">
         <f t="shared" si="4"/>
-        <v>6013</v>
+        <v>9603</v>
       </c>
       <c r="S16">
         <f t="shared" si="4"/>
-        <v>9982</v>
+        <v>10229</v>
       </c>
       <c r="V16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W16" s="3">
         <f>W13-W10</f>
-        <v>2344</v>
+        <v>5573</v>
       </c>
       <c r="X16" s="3">
         <f t="shared" ref="X16:AC16" si="5">X13-X10</f>
-        <v>2859</v>
+        <v>2729</v>
       </c>
       <c r="Y16" s="3">
         <f t="shared" si="5"/>
-        <v>4002</v>
+        <v>1997</v>
       </c>
       <c r="Z16" s="3">
         <f t="shared" si="5"/>
-        <v>5033</v>
+        <v>5328</v>
       </c>
       <c r="AA16" s="3">
         <f t="shared" si="5"/>
-        <v>4269</v>
+        <v>2286</v>
       </c>
       <c r="AB16" s="3">
         <f t="shared" si="5"/>
-        <v>5763</v>
+        <v>6226</v>
       </c>
       <c r="AC16" s="3">
         <f t="shared" si="5"/>
-        <v>2638</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -11504,25 +11492,25 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="5">
         <v>4991</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X20" s="5">
         <v>4271</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="5">
         <v>3931</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="5">
         <v>3741</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="5">
         <v>2971</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AB20" s="5">
         <v>2341</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AC20" s="5">
         <v>2381</v>
       </c>
     </row>
@@ -11557,51 +11545,37 @@
         <v>4</v>
       </c>
       <c r="M21" s="3">
-        <v>36031</v>
+        <v>48605</v>
       </c>
       <c r="N21" s="3">
-        <v>33291</v>
+        <v>45103</v>
       </c>
       <c r="O21" s="3">
-        <v>30551</v>
+        <v>39987</v>
       </c>
       <c r="P21" s="3">
-        <v>30051</v>
+        <v>38561</v>
       </c>
       <c r="Q21" s="3">
-        <v>28101</v>
+        <v>36037</v>
       </c>
       <c r="R21" s="3">
-        <v>28041</v>
+        <v>32415</v>
       </c>
       <c r="S21" s="3">
-        <v>26451</v>
+        <v>31446</v>
       </c>
       <c r="U21" s="3"/>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W21" s="3">
-        <v>35432</v>
-      </c>
-      <c r="X21" s="3">
-        <v>33531</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>30521</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>29193</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>27111</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>25511</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>25083</v>
-      </c>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B22" t="s">

--- a/test/output/mem_lifetime.xlsx
+++ b/test/output/mem_lifetime.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEAE0BD-D439-4330-B06F-D35BE9619F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B611F96-C1B6-4A32-8D04-63FDB15CC9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,6 +148,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -169,13 +177,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3780,1533 +3789,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DD7B-4D88-BC40-D6136FE6738E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="350829136"/>
-        <c:axId val="350831880"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="350829136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>感測器總數</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="350831880"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="350831880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="80000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>network lifetime(S)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="350829136"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14808144586746888"/>
-          <c:y val="4.2995278213612362E-2"/>
-          <c:w val="0.58380793519613428"/>
-          <c:h val="0.81997966264864453"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$L$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E-DSR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$1:$AC$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$10:$AC$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>59290</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>58011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56734</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>54033</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>52455</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>51685</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50818</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-548E-42AE-851E-BBA2B9F473FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$L$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NRCA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$1:$AC$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$11:$AC$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>15651</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12651</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10441</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5231</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>921</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>831</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>801</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-548E-42AE-851E-BBA2B9F473FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$L$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Optimal LEACH</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$1:$AC$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$12:$AC$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5871</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4931</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4781</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2891</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2561</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1771</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1451</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-548E-42AE-851E-BBA2B9F473FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$L$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>my</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$1:$AC$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$13:$AC$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>64863</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60740</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58731</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>59361</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54741</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>57911</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>52341</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-548E-42AE-851E-BBA2B9F473FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="350829136"/>
-        <c:axId val="350831880"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="350829136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>感測器總數</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="350831880"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="350831880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="80000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>network lifetime(S)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="350829136"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14808144586746888"/>
-          <c:y val="4.2995278213612362E-2"/>
-          <c:w val="0.58380793519613428"/>
-          <c:h val="0.81997966264864453"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$L$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E-DSR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$1:$AC$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$18:$AC$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>44914</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37450</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29707</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24211</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18124</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14611</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13967</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-76D7-475C-B472-BE241B571B32}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$L$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NRCA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$1:$AC$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$19:$AC$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>9101</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>851</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>701</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>561</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>521</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>411</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-76D7-475C-B472-BE241B571B32}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$L$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Optimal LEACH</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$1:$AC$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$20:$AC$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4991</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4271</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3931</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3741</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2971</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2341</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2381</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-76D7-475C-B472-BE241B571B32}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$L$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>my</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$1:$AC$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$21:$AC$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-76D7-475C-B472-BE241B571B32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5824,86 +4306,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -7989,1048 +6391,6 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9741,82 +7101,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>62754</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>526677</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>109818</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="圖表 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892B5D6E-601A-4893-B7CB-AB3F82C71136}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>463923</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>71717</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="圖表 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941BCEFA-C4A3-44DD-BADE-883CB7D97A07}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10143,8 +7427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20:AC20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -10742,29 +8026,29 @@
       <c r="S9" s="4">
         <v>1000</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="U9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="V9" s="3"/>
-      <c r="W9" s="4">
+      <c r="V9" s="5"/>
+      <c r="W9" s="6">
         <v>400</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="6">
         <v>500</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="6">
         <v>600</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="Z9" s="6">
         <v>700</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="AA9" s="6">
         <v>800</v>
       </c>
-      <c r="AB9" s="4">
+      <c r="AB9" s="6">
         <v>900</v>
       </c>
-      <c r="AC9" s="4">
+      <c r="AC9" s="6">
         <v>1000</v>
       </c>
     </row>
@@ -10823,31 +8107,31 @@
       <c r="S10" s="3">
         <v>46662</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="U10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="V10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="5">
         <v>59290</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="5">
         <v>58011</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="5">
         <v>56734</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="5">
         <v>54033</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="5">
         <v>52455</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="5">
         <v>51685</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AC10" s="5">
         <v>50818</v>
       </c>
     </row>
@@ -10901,29 +8185,29 @@
       <c r="S11" s="3">
         <v>931</v>
       </c>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3" t="s">
+      <c r="U11" s="5"/>
+      <c r="V11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="5">
         <v>15651</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X11" s="5">
         <v>12651</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y11" s="5">
         <v>10441</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="Z11" s="5">
         <v>5231</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AA11" s="5">
         <v>921</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AB11" s="5">
         <v>831</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AC11" s="5">
         <v>801</v>
       </c>
     </row>
@@ -10977,29 +8261,29 @@
       <c r="S12" s="3">
         <v>1871</v>
       </c>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3" t="s">
+      <c r="U12" s="5"/>
+      <c r="V12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="5">
         <v>5871</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X12" s="5">
         <v>4931</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y12" s="5">
         <v>4781</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z12" s="5">
         <v>2891</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AA12" s="5">
         <v>2561</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AB12" s="5">
         <v>1771</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AC12" s="5">
         <v>1451</v>
       </c>
     </row>
@@ -11054,8 +8338,8 @@
       <c r="S13" s="3">
         <v>56891</v>
       </c>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3" t="s">
+      <c r="U13" s="5"/>
+      <c r="V13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="W13" s="5">
@@ -11089,10 +8373,17 @@
       <c r="L14" t="s">
         <v>6</v>
       </c>
-      <c r="U14" s="2"/>
-      <c r="V14" t="s">
+      <c r="U14" s="5"/>
+      <c r="V14" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -11103,10 +8394,17 @@
       <c r="L15" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="2"/>
-      <c r="V15" t="s">
+      <c r="U15" s="5"/>
+      <c r="V15" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -11171,34 +8469,35 @@
         <f t="shared" si="4"/>
         <v>10229</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="U16" s="5"/>
+      <c r="V16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="5">
         <f>W13-W10</f>
         <v>5573</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X16" s="5">
         <f t="shared" ref="X16:AC16" si="5">X13-X10</f>
         <v>2729</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y16" s="5">
         <f t="shared" si="5"/>
         <v>1997</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="Z16" s="5">
         <f t="shared" si="5"/>
         <v>5328</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AA16" s="5">
         <f t="shared" si="5"/>
         <v>2286</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AB16" s="5">
         <f t="shared" si="5"/>
         <v>6226</v>
       </c>
-      <c r="AC16" s="3">
+      <c r="AC16" s="5">
         <f t="shared" si="5"/>
         <v>1523</v>
       </c>
@@ -11253,29 +8552,29 @@
       <c r="S17" s="4">
         <v>1000</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="U17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="V17" s="3"/>
-      <c r="W17" s="4">
+      <c r="V17" s="5"/>
+      <c r="W17" s="6">
         <v>400</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X17" s="6">
         <v>500</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Y17" s="6">
         <v>600</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="Z17" s="6">
         <v>700</v>
       </c>
-      <c r="AA17" s="4">
+      <c r="AA17" s="6">
         <v>800</v>
       </c>
-      <c r="AB17" s="4">
+      <c r="AB17" s="6">
         <v>900</v>
       </c>
-      <c r="AC17" s="4">
+      <c r="AC17" s="6">
         <v>1000</v>
       </c>
     </row>
@@ -11334,31 +8633,31 @@
       <c r="S18" s="3">
         <v>9361</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="U18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="V18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="5">
         <v>44914</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18" s="5">
         <v>37450</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="5">
         <v>29707</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="5">
         <v>24211</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="5">
         <v>18124</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="5">
         <v>14611</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AC18" s="5">
         <v>13967</v>
       </c>
     </row>
@@ -11412,29 +8711,29 @@
       <c r="S19" s="3">
         <v>501</v>
       </c>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3" t="s">
+      <c r="U19" s="5"/>
+      <c r="V19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W19" s="3">
+      <c r="W19" s="5">
         <v>9101</v>
       </c>
-      <c r="X19" s="3">
+      <c r="X19" s="5">
         <v>851</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Y19" s="5">
         <v>701</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="Z19" s="5">
         <v>561</v>
       </c>
-      <c r="AA19" s="3">
+      <c r="AA19" s="5">
         <v>521</v>
       </c>
-      <c r="AB19" s="3">
+      <c r="AB19" s="5">
         <v>501</v>
       </c>
-      <c r="AC19" s="3">
+      <c r="AC19" s="5">
         <v>411</v>
       </c>
     </row>
@@ -11488,8 +8787,8 @@
       <c r="S20" s="3">
         <v>1821</v>
       </c>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3" t="s">
+      <c r="U20" s="5"/>
+      <c r="V20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="W20" s="5">
@@ -11566,7 +8865,7 @@
         <v>31446</v>
       </c>
       <c r="U21" s="3"/>
-      <c r="V21" s="3" t="s">
+      <c r="V21" s="5" t="s">
         <v>4</v>
       </c>
       <c r="W21" s="3"/>

--- a/test/output/mem_lifetime.xlsx
+++ b/test/output/mem_lifetime.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B611F96-C1B6-4A32-8D04-63FDB15CC9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE1A2E4-CA6A-4AE8-B726-4BB2FA09C054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1105,7 +1105,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>51906</c:v>
+                  <c:v>54196</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50161</c:v>
@@ -1123,7 +1123,7 @@
                   <c:v>33190</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32134</c:v>
+                  <c:v>29481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3444,13 +3444,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>53077</c:v>
+                  <c:v>52888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50864</c:v>
+                  <c:v>50018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47752</c:v>
+                  <c:v>46185</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>42841</c:v>
@@ -3462,7 +3462,7 @@
                   <c:v>31774</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28441</c:v>
+                  <c:v>27229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7427,8 +7427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7559,7 +7559,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="3">
-        <v>51906</v>
+        <v>54196</v>
       </c>
       <c r="N2" s="3">
         <v>50161</v>
@@ -7577,7 +7577,7 @@
         <v>33190</v>
       </c>
       <c r="S2" s="3">
-        <v>32134</v>
+        <v>29481</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>15</v>
@@ -7586,13 +7586,13 @@
         <v>1</v>
       </c>
       <c r="W2" s="3">
-        <v>53077</v>
+        <v>52888</v>
       </c>
       <c r="X2" s="3">
-        <v>50864</v>
+        <v>50018</v>
       </c>
       <c r="Y2" s="3">
-        <v>47752</v>
+        <v>46185</v>
       </c>
       <c r="Z2" s="3">
         <v>42841</v>
@@ -7604,7 +7604,7 @@
         <v>31774</v>
       </c>
       <c r="AC2" s="3">
-        <v>28441</v>
+        <v>27229</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="M8">
         <f t="shared" ref="M8:S8" si="1">M5-M2</f>
-        <v>7905</v>
+        <v>5615</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
-        <v>4867</v>
+        <v>7520</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
@@ -7949,15 +7949,15 @@
       </c>
       <c r="W8" s="3">
         <f t="shared" ref="W8:AC8" si="2">W5-W2</f>
-        <v>3160</v>
+        <v>3349</v>
       </c>
       <c r="X8" s="3">
         <f t="shared" si="2"/>
-        <v>2746</v>
+        <v>3592</v>
       </c>
       <c r="Y8" s="3">
         <f t="shared" si="2"/>
-        <v>3633</v>
+        <v>5200</v>
       </c>
       <c r="Z8" s="3">
         <f t="shared" si="2"/>
@@ -7973,7 +7973,7 @@
       </c>
       <c r="AC8" s="3">
         <f t="shared" si="2"/>
-        <v>9922</v>
+        <v>11134</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">

--- a/test/output/mem_lifetime.xlsx
+++ b/test/output/mem_lifetime.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEAE0BD-D439-4330-B06F-D35BE9619F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE1A2E4-CA6A-4AE8-B726-4BB2FA09C054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,6 +148,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -169,13 +177,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1096,7 +1105,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>51906</c:v>
+                  <c:v>54196</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50161</c:v>
@@ -1114,7 +1123,7 @@
                   <c:v>33190</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32134</c:v>
+                  <c:v>29481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3435,13 +3444,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>53077</c:v>
+                  <c:v>52888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50864</c:v>
+                  <c:v>50018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47752</c:v>
+                  <c:v>46185</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>42841</c:v>
@@ -3453,7 +3462,7 @@
                   <c:v>31774</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28441</c:v>
+                  <c:v>27229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3780,1533 +3789,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DD7B-4D88-BC40-D6136FE6738E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="350829136"/>
-        <c:axId val="350831880"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="350829136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>感測器總數</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="350831880"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="350831880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="80000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>network lifetime(S)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="350829136"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14808144586746888"/>
-          <c:y val="4.2995278213612362E-2"/>
-          <c:w val="0.58380793519613428"/>
-          <c:h val="0.81997966264864453"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$L$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E-DSR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$1:$AC$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$10:$AC$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>59290</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>58011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56734</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>54033</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>52455</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>51685</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50818</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-548E-42AE-851E-BBA2B9F473FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$L$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NRCA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$1:$AC$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$11:$AC$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>15651</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12651</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10441</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5231</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>921</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>831</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>801</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-548E-42AE-851E-BBA2B9F473FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$L$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Optimal LEACH</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$1:$AC$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$12:$AC$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5871</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4931</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4781</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2891</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2561</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1771</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1451</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-548E-42AE-851E-BBA2B9F473FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$L$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>my</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$1:$AC$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$13:$AC$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>64863</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60740</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58731</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>59361</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54741</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>57911</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>52341</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-548E-42AE-851E-BBA2B9F473FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="350829136"/>
-        <c:axId val="350831880"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="350829136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>感測器總數</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="350831880"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="350831880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="80000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>network lifetime(S)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="350829136"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14808144586746888"/>
-          <c:y val="4.2995278213612362E-2"/>
-          <c:w val="0.58380793519613428"/>
-          <c:h val="0.81997966264864453"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$L$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E-DSR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$1:$AC$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$18:$AC$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>44914</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37450</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29707</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24211</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18124</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14611</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13967</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-76D7-475C-B472-BE241B571B32}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$L$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NRCA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$1:$AC$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$19:$AC$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>9101</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>851</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>701</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>561</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>521</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>411</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-76D7-475C-B472-BE241B571B32}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$L$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Optimal LEACH</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$1:$AC$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$20:$AC$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4991</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4271</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3931</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3741</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2971</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2341</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2381</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-76D7-475C-B472-BE241B571B32}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$L$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>my</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$1:$AC$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$21:$AC$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-76D7-475C-B472-BE241B571B32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5824,86 +4306,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -7989,1048 +6391,6 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9741,82 +7101,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>62754</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>526677</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>109818</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="圖表 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892B5D6E-601A-4893-B7CB-AB3F82C71136}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>463923</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>71717</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="圖表 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941BCEFA-C4A3-44DD-BADE-883CB7D97A07}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10143,8 +7427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20:AC20"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -10275,7 +7559,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="3">
-        <v>51906</v>
+        <v>54196</v>
       </c>
       <c r="N2" s="3">
         <v>50161</v>
@@ -10293,7 +7577,7 @@
         <v>33190</v>
       </c>
       <c r="S2" s="3">
-        <v>32134</v>
+        <v>29481</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>15</v>
@@ -10302,13 +7586,13 @@
         <v>1</v>
       </c>
       <c r="W2" s="3">
-        <v>53077</v>
+        <v>52888</v>
       </c>
       <c r="X2" s="3">
-        <v>50864</v>
+        <v>50018</v>
       </c>
       <c r="Y2" s="3">
-        <v>47752</v>
+        <v>46185</v>
       </c>
       <c r="Z2" s="3">
         <v>42841</v>
@@ -10320,7 +7604,7 @@
         <v>31774</v>
       </c>
       <c r="AC2" s="3">
-        <v>28441</v>
+        <v>27229</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -10633,7 +7917,7 @@
       </c>
       <c r="M8">
         <f t="shared" ref="M8:S8" si="1">M5-M2</f>
-        <v>7905</v>
+        <v>5615</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
@@ -10657,7 +7941,7 @@
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
-        <v>4867</v>
+        <v>7520</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
@@ -10665,15 +7949,15 @@
       </c>
       <c r="W8" s="3">
         <f t="shared" ref="W8:AC8" si="2">W5-W2</f>
-        <v>3160</v>
+        <v>3349</v>
       </c>
       <c r="X8" s="3">
         <f t="shared" si="2"/>
-        <v>2746</v>
+        <v>3592</v>
       </c>
       <c r="Y8" s="3">
         <f t="shared" si="2"/>
-        <v>3633</v>
+        <v>5200</v>
       </c>
       <c r="Z8" s="3">
         <f t="shared" si="2"/>
@@ -10689,7 +7973,7 @@
       </c>
       <c r="AC8" s="3">
         <f t="shared" si="2"/>
-        <v>9922</v>
+        <v>11134</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -10742,29 +8026,29 @@
       <c r="S9" s="4">
         <v>1000</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="U9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="V9" s="3"/>
-      <c r="W9" s="4">
+      <c r="V9" s="5"/>
+      <c r="W9" s="6">
         <v>400</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="6">
         <v>500</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="6">
         <v>600</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="Z9" s="6">
         <v>700</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="AA9" s="6">
         <v>800</v>
       </c>
-      <c r="AB9" s="4">
+      <c r="AB9" s="6">
         <v>900</v>
       </c>
-      <c r="AC9" s="4">
+      <c r="AC9" s="6">
         <v>1000</v>
       </c>
     </row>
@@ -10823,31 +8107,31 @@
       <c r="S10" s="3">
         <v>46662</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="U10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="V10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="5">
         <v>59290</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="5">
         <v>58011</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="5">
         <v>56734</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="5">
         <v>54033</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="5">
         <v>52455</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="5">
         <v>51685</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AC10" s="5">
         <v>50818</v>
       </c>
     </row>
@@ -10901,29 +8185,29 @@
       <c r="S11" s="3">
         <v>931</v>
       </c>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3" t="s">
+      <c r="U11" s="5"/>
+      <c r="V11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="5">
         <v>15651</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X11" s="5">
         <v>12651</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y11" s="5">
         <v>10441</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="Z11" s="5">
         <v>5231</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AA11" s="5">
         <v>921</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AB11" s="5">
         <v>831</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AC11" s="5">
         <v>801</v>
       </c>
     </row>
@@ -10977,29 +8261,29 @@
       <c r="S12" s="3">
         <v>1871</v>
       </c>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3" t="s">
+      <c r="U12" s="5"/>
+      <c r="V12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="5">
         <v>5871</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X12" s="5">
         <v>4931</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y12" s="5">
         <v>4781</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z12" s="5">
         <v>2891</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AA12" s="5">
         <v>2561</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AB12" s="5">
         <v>1771</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AC12" s="5">
         <v>1451</v>
       </c>
     </row>
@@ -11054,8 +8338,8 @@
       <c r="S13" s="3">
         <v>56891</v>
       </c>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3" t="s">
+      <c r="U13" s="5"/>
+      <c r="V13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="W13" s="5">
@@ -11089,10 +8373,17 @@
       <c r="L14" t="s">
         <v>6</v>
       </c>
-      <c r="U14" s="2"/>
-      <c r="V14" t="s">
+      <c r="U14" s="5"/>
+      <c r="V14" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -11103,10 +8394,17 @@
       <c r="L15" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="2"/>
-      <c r="V15" t="s">
+      <c r="U15" s="5"/>
+      <c r="V15" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -11171,34 +8469,35 @@
         <f t="shared" si="4"/>
         <v>10229</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="U16" s="5"/>
+      <c r="V16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="5">
         <f>W13-W10</f>
         <v>5573</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X16" s="5">
         <f t="shared" ref="X16:AC16" si="5">X13-X10</f>
         <v>2729</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y16" s="5">
         <f t="shared" si="5"/>
         <v>1997</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="Z16" s="5">
         <f t="shared" si="5"/>
         <v>5328</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AA16" s="5">
         <f t="shared" si="5"/>
         <v>2286</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AB16" s="5">
         <f t="shared" si="5"/>
         <v>6226</v>
       </c>
-      <c r="AC16" s="3">
+      <c r="AC16" s="5">
         <f t="shared" si="5"/>
         <v>1523</v>
       </c>
@@ -11253,29 +8552,29 @@
       <c r="S17" s="4">
         <v>1000</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="U17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="V17" s="3"/>
-      <c r="W17" s="4">
+      <c r="V17" s="5"/>
+      <c r="W17" s="6">
         <v>400</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X17" s="6">
         <v>500</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Y17" s="6">
         <v>600</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="Z17" s="6">
         <v>700</v>
       </c>
-      <c r="AA17" s="4">
+      <c r="AA17" s="6">
         <v>800</v>
       </c>
-      <c r="AB17" s="4">
+      <c r="AB17" s="6">
         <v>900</v>
       </c>
-      <c r="AC17" s="4">
+      <c r="AC17" s="6">
         <v>1000</v>
       </c>
     </row>
@@ -11334,31 +8633,31 @@
       <c r="S18" s="3">
         <v>9361</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="U18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="V18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="5">
         <v>44914</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18" s="5">
         <v>37450</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="5">
         <v>29707</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="5">
         <v>24211</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="5">
         <v>18124</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="5">
         <v>14611</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AC18" s="5">
         <v>13967</v>
       </c>
     </row>
@@ -11412,29 +8711,29 @@
       <c r="S19" s="3">
         <v>501</v>
       </c>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3" t="s">
+      <c r="U19" s="5"/>
+      <c r="V19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W19" s="3">
+      <c r="W19" s="5">
         <v>9101</v>
       </c>
-      <c r="X19" s="3">
+      <c r="X19" s="5">
         <v>851</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Y19" s="5">
         <v>701</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="Z19" s="5">
         <v>561</v>
       </c>
-      <c r="AA19" s="3">
+      <c r="AA19" s="5">
         <v>521</v>
       </c>
-      <c r="AB19" s="3">
+      <c r="AB19" s="5">
         <v>501</v>
       </c>
-      <c r="AC19" s="3">
+      <c r="AC19" s="5">
         <v>411</v>
       </c>
     </row>
@@ -11488,8 +8787,8 @@
       <c r="S20" s="3">
         <v>1821</v>
       </c>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3" t="s">
+      <c r="U20" s="5"/>
+      <c r="V20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="W20" s="5">
@@ -11566,7 +8865,7 @@
         <v>31446</v>
       </c>
       <c r="U21" s="3"/>
-      <c r="V21" s="3" t="s">
+      <c r="V21" s="5" t="s">
         <v>4</v>
       </c>
       <c r="W21" s="3"/>

--- a/test/output/mem_lifetime.xlsx
+++ b/test/output/mem_lifetime.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE1A2E4-CA6A-4AE8-B726-4BB2FA09C054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929FFBFB-41C2-40B9-BE5D-588349AF3C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="19">
   <si>
     <t>AVG_LIFETIME</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>special2 800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER-ACS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +576,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -692,12 +696,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1356,7 +1355,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1476,12 +1475,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2250,12 +2244,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2656,7 +2645,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44949</c:v>
+                  <c:v>42541</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>36769</c:v>
@@ -3027,12 +3016,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3695,7 +3679,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3815,12 +3799,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -7427,8 +7406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:S2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V57" sqref="V57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7764,7 +7743,7 @@
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3">
         <v>60581</v>
@@ -7789,7 +7768,7 @@
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M5" s="3">
         <v>59811</v>
@@ -7814,7 +7793,7 @@
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="W5" s="3">
         <v>56237</v>
@@ -8315,7 +8294,7 @@
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M13" s="3">
         <v>69595</v>
@@ -8613,7 +8592,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="3">
-        <v>44949</v>
+        <v>42541</v>
       </c>
       <c r="N18" s="3">
         <v>36769</v>
@@ -8841,7 +8820,7 @@
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M21" s="3">
         <v>48605</v>

--- a/test/output/mem_lifetime.xlsx
+++ b/test/output/mem_lifetime.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929FFBFB-41C2-40B9-BE5D-588349AF3C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBE8ED6-EE12-4958-8BAD-BEFA2779E2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2124,7 +2124,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2896,7 +2896,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7406,8 +7406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V57" sqref="V57"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -8268,8 +8268,8 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" t="s">
-        <v>4</v>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C13">
         <v>66649</v>
@@ -8794,8 +8794,8 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" t="s">
-        <v>4</v>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C21">
         <v>49098</v>

--- a/test/output/mem_lifetime.xlsx
+++ b/test/output/mem_lifetime.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE1A2E4-CA6A-4AE8-B726-4BB2FA09C054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBE8ED6-EE12-4958-8BAD-BEFA2779E2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="19">
   <si>
     <t>AVG_LIFETIME</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>special2 800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER-ACS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +576,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -692,12 +696,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1356,7 +1355,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1476,12 +1475,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2130,7 +2124,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2250,12 +2244,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2656,7 +2645,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44949</c:v>
+                  <c:v>42541</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>36769</c:v>
@@ -2907,7 +2896,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3027,12 +3016,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3695,7 +3679,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3815,12 +3799,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -7427,8 +7406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:S2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7764,7 +7743,7 @@
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3">
         <v>60581</v>
@@ -7789,7 +7768,7 @@
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M5" s="3">
         <v>59811</v>
@@ -7814,7 +7793,7 @@
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="W5" s="3">
         <v>56237</v>
@@ -8289,8 +8268,8 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" t="s">
-        <v>4</v>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C13">
         <v>66649</v>
@@ -8315,7 +8294,7 @@
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M13" s="3">
         <v>69595</v>
@@ -8613,7 +8592,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="3">
-        <v>44949</v>
+        <v>42541</v>
       </c>
       <c r="N18" s="3">
         <v>36769</v>
@@ -8815,8 +8794,8 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" t="s">
-        <v>4</v>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C21">
         <v>49098</v>
@@ -8841,7 +8820,7 @@
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M21" s="3">
         <v>48605</v>
